--- a/plots/basic_stats/two_var_stats/allmus_accreditation_vs_subject_matter_simpl.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_accreditation_vs_subject_matter_simpl.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:CF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,107 +365,417 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>archaeology</t>
+          <t>airforce</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>art</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>belief_and_identity</t>
+          <t>aviation</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>buildings</t>
+          <t>bicycles</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>communications</t>
+          <t>boats_and_ships</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>food_and_drink</t>
+          <t>bunker</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>industry_and_manufacture</t>
+          <t>buses_and_trams</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>leisure_and_sport</t>
+          <t>bygones</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>local_histories</t>
+          <t>canals</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medicine_and_health</t>
+          <t>cars_and_motorbikes</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>castles_and_forts</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ceramics</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>church_treasuries</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>civic</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>clocks_and_watches</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>computing_and_gaming</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>costume_and_textiles</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>crafts</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>cricket</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>dinosaurs</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>encyclopaedic</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ethnic_group</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>event_or_site</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>explorer</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>fairgrounds_and_amusements</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>farming</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>film_cinema_and_tv</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>fine_and_decorative_arts</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>fire</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>fishing</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>forges</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>fossils</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>freemasons</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>gas_and_electricity</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>geology</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>greek_and_egyptian</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>herbaria_and_gardening</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>hospital</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>houses</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>industrial_life</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>lighthouses</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>literary</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>medieval</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>military</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>mining_and_quarrying</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>mixed</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>natural_world</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>music</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>navy</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>personality</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>rural_industry</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>science_and_technology</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>sea_and_seafaring</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>services</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>transport</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>utilities</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>war_and_conflict</t>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>palace</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>penal</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>photography</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>police</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>political</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>potteries</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>prehistory</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>print</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>professional_association</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>regiment</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>religion</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>religious</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>religious_buildings</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>rnli</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>roman</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>rugby_and_football</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>rural_life</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>scientific</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>shops</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>steam_and_engines</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>textiles</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>toys_and_models</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>trains_and_railways</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>water_and_waste</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>watermills</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>windmills</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>zoology</t>
         </is>
       </c>
     </row>
@@ -476,67 +786,253 @@
         </is>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>98</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>11</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>116</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="AG2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>71</v>
-      </c>
-      <c r="I2">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>482</v>
-      </c>
-      <c r="K2">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>135</v>
-      </c>
-      <c r="M2">
-        <v>22</v>
-      </c>
-      <c r="N2">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>4</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>4</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>4</v>
+      </c>
+      <c r="AN2">
+        <v>4</v>
+      </c>
+      <c r="AO2">
+        <v>7</v>
+      </c>
+      <c r="AP2">
+        <v>204</v>
+      </c>
+      <c r="AQ2">
+        <v>7</v>
+      </c>
+      <c r="AR2">
+        <v>4</v>
+      </c>
+      <c r="AS2">
+        <v>40</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>4</v>
+      </c>
+      <c r="AV2">
+        <v>7</v>
+      </c>
+      <c r="AW2">
+        <v>9</v>
+      </c>
+      <c r="AX2">
+        <v>15</v>
+      </c>
+      <c r="AY2">
+        <v>62</v>
+      </c>
+      <c r="AZ2">
+        <v>11</v>
+      </c>
+      <c r="BA2">
+        <v>9</v>
+      </c>
+      <c r="BB2">
+        <v>133</v>
+      </c>
+      <c r="BC2">
+        <v>4</v>
+      </c>
+      <c r="BD2">
+        <v>7</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>5</v>
+      </c>
+      <c r="BG2">
+        <v>9</v>
+      </c>
+      <c r="BH2">
+        <v>4</v>
+      </c>
+      <c r="BI2">
+        <v>5</v>
+      </c>
+      <c r="BJ2">
+        <v>9</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>8</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>81</v>
+      </c>
+      <c r="BO2">
         <v>10</v>
       </c>
-      <c r="O2">
-        <v>94</v>
-      </c>
-      <c r="P2">
+      <c r="BP2">
+        <v>4</v>
+      </c>
+      <c r="BQ2">
+        <v>19</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>25</v>
+      </c>
+      <c r="BT2">
+        <v>3</v>
+      </c>
+      <c r="BU2">
+        <v>9</v>
+      </c>
+      <c r="BV2">
+        <v>5</v>
+      </c>
+      <c r="BW2">
+        <v>10</v>
+      </c>
+      <c r="BX2">
+        <v>2</v>
+      </c>
+      <c r="BY2">
+        <v>2</v>
+      </c>
+      <c r="BZ2">
+        <v>24</v>
+      </c>
+      <c r="CA2">
+        <v>7</v>
+      </c>
+      <c r="CB2">
         <v>36</v>
       </c>
-      <c r="Q2">
-        <v>10</v>
-      </c>
-      <c r="R2">
-        <v>42</v>
-      </c>
-      <c r="S2">
-        <v>7</v>
-      </c>
-      <c r="T2">
-        <v>78</v>
-      </c>
-      <c r="U2">
-        <v>11</v>
-      </c>
-      <c r="V2">
-        <v>153</v>
+      <c r="CC2">
+        <v>9</v>
+      </c>
+      <c r="CD2">
+        <v>4</v>
+      </c>
+      <c r="CE2">
+        <v>6</v>
+      </c>
+      <c r="CF2">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -546,67 +1042,253 @@
         </is>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
         <v>69</v>
       </c>
-      <c r="E3">
-        <v>358</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>21</v>
+      </c>
+      <c r="X3">
+        <v>20</v>
+      </c>
+      <c r="Y3">
+        <v>26</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>57</v>
+      </c>
+      <c r="AC3">
+        <v>19</v>
+      </c>
+      <c r="AD3">
+        <v>80</v>
+      </c>
+      <c r="AE3">
+        <v>13</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <v>6</v>
+      </c>
+      <c r="AH3">
+        <v>4</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <v>12</v>
+      </c>
+      <c r="AL3">
+        <v>8</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
+      <c r="AO3">
+        <v>10</v>
+      </c>
+      <c r="AP3">
+        <v>313</v>
+      </c>
+      <c r="AQ3">
+        <v>5</v>
+      </c>
+      <c r="AR3">
+        <v>6</v>
+      </c>
+      <c r="AS3">
+        <v>43</v>
+      </c>
+      <c r="AT3">
+        <v>6</v>
+      </c>
+      <c r="AU3">
+        <v>8</v>
+      </c>
+      <c r="AV3">
+        <v>7</v>
+      </c>
+      <c r="AW3">
+        <v>38</v>
+      </c>
+      <c r="AX3">
+        <v>36</v>
+      </c>
+      <c r="AY3">
+        <v>74</v>
+      </c>
+      <c r="AZ3">
+        <v>21</v>
+      </c>
+      <c r="BA3">
+        <v>7</v>
+      </c>
+      <c r="BB3">
+        <v>228</v>
+      </c>
+      <c r="BC3">
+        <v>3</v>
+      </c>
+      <c r="BD3">
+        <v>9</v>
+      </c>
+      <c r="BE3">
+        <v>10</v>
+      </c>
+      <c r="BF3">
+        <v>21</v>
+      </c>
+      <c r="BG3">
+        <v>12</v>
+      </c>
+      <c r="BH3">
+        <v>3</v>
+      </c>
+      <c r="BI3">
+        <v>6</v>
+      </c>
+      <c r="BJ3">
+        <v>18</v>
+      </c>
+      <c r="BK3">
+        <v>6</v>
+      </c>
+      <c r="BL3">
+        <v>4</v>
+      </c>
+      <c r="BM3">
+        <v>5</v>
+      </c>
+      <c r="BN3">
+        <v>50</v>
+      </c>
+      <c r="BO3">
+        <v>19</v>
+      </c>
+      <c r="BP3">
+        <v>13</v>
+      </c>
+      <c r="BQ3">
+        <v>21</v>
+      </c>
+      <c r="BR3">
+        <v>5</v>
+      </c>
+      <c r="BS3">
+        <v>15</v>
+      </c>
+      <c r="BT3">
+        <v>19</v>
+      </c>
+      <c r="BU3">
+        <v>31</v>
+      </c>
+      <c r="BV3">
+        <v>8</v>
+      </c>
+      <c r="BW3">
+        <v>3</v>
+      </c>
+      <c r="BX3">
+        <v>4</v>
+      </c>
+      <c r="BY3">
+        <v>9</v>
+      </c>
+      <c r="BZ3">
         <v>23</v>
       </c>
-      <c r="H3">
-        <v>111</v>
-      </c>
-      <c r="I3">
-        <v>115</v>
-      </c>
-      <c r="J3">
-        <v>376</v>
-      </c>
-      <c r="K3">
-        <v>25</v>
-      </c>
-      <c r="L3">
-        <v>65</v>
-      </c>
-      <c r="M3">
-        <v>49</v>
-      </c>
-      <c r="N3">
-        <v>62</v>
-      </c>
-      <c r="O3">
-        <v>101</v>
-      </c>
-      <c r="P3">
-        <v>147</v>
-      </c>
-      <c r="Q3">
+      <c r="CA3">
+        <v>50</v>
+      </c>
+      <c r="CB3">
+        <v>107</v>
+      </c>
+      <c r="CC3">
+        <v>22</v>
+      </c>
+      <c r="CD3">
+        <v>26</v>
+      </c>
+      <c r="CE3">
         <v>13</v>
       </c>
-      <c r="R3">
-        <v>77</v>
-      </c>
-      <c r="S3">
-        <v>41</v>
-      </c>
-      <c r="T3">
-        <v>233</v>
-      </c>
-      <c r="U3">
-        <v>27</v>
-      </c>
-      <c r="V3">
-        <v>217</v>
+      <c r="CF3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
